--- a/data/trans_bre/P28B_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28B_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>12,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,79</t>
+          <t>13,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,02</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,46%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>-6,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>82,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>20,22%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 31,53</t>
+          <t>-11,45; 33,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 20,87</t>
+          <t>-24,51; 17,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 24,62</t>
+          <t>-6,94; 31,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 22,26</t>
+          <t>-15,67; 18,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 94,51</t>
+          <t>-19,14; 100,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 130,32</t>
+          <t>-56,57; 109,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 274,45</t>
+          <t>-26,1; 450,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,35; 430,53</t>
+          <t>-62,49; 435,94</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,68</t>
+          <t>36,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,7</t>
+          <t>13,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,93</t>
+          <t>20,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,28</t>
+          <t>16,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>144,25%</t>
+          <t>186,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>101,84%</t>
+          <t>63,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>114,24%</t>
+          <t>195,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>226,95%</t>
+          <t>220,45%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,92; 45,63</t>
+          <t>16,89; 54,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 31,53</t>
+          <t>-22,66; 35,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 26,18</t>
+          <t>6,02; 38,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 30,49</t>
+          <t>2,57; 30,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,55; 344,35</t>
+          <t>50,5; 548,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,69; 531,82</t>
+          <t>-55,74; 1216,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,99; 477,07</t>
+          <t>21,81; 961,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,4; 656,93</t>
+          <t>-3,13; 1182,18</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,52</t>
+          <t>25,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-7,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>74,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>-3,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>-31,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>-13,63%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 23,93</t>
+          <t>9,8; 40,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 12,04</t>
+          <t>-16,73; 12,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 9,56</t>
+          <t>-21,39; 4,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 11,74</t>
+          <t>-17,0; 9,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 72,44</t>
+          <t>19,32; 167,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,74; 62,3</t>
+          <t>-42,41; 68,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 75,85</t>
+          <t>-64,45; 24,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 96,28</t>
+          <t>-53,74; 65,12</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,74</t>
+          <t>18,08</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,76</t>
+          <t>9,35</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>52,83%</t>
+          <t>102,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>50,93%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 18,35</t>
+          <t>-10,74; 19,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 13,24</t>
+          <t>-4,27; 22,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 19,75</t>
+          <t>6,19; 30,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 23,28</t>
+          <t>-3,2; 21,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 48,17</t>
+          <t>-21,12; 61,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 73,0</t>
+          <t>-14,76; 146,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 130,94</t>
+          <t>22,25; 264,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,68; 223,08</t>
+          <t>-14,13; 191,34</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,24</t>
+          <t>17,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>55,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,61%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>14,75%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 25,51</t>
+          <t>-2,32; 34,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 9,58</t>
+          <t>-17,78; 19,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 19,09</t>
+          <t>-14,45; 23,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 13,13</t>
+          <t>-10,42; 16,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 111,78</t>
+          <t>-8,69; 141,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-48,32; 53,54</t>
+          <t>-45,66; 91,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 126,33</t>
+          <t>-41,5; 122,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 133,18</t>
+          <t>-52,83; 172,55</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>12,92</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,66</t>
+          <t>18,52</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>15,57</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>139,72%</t>
+          <t>138,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>260,49%</t>
+          <t>787,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>117,65%</t>
+          <t>160,49%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 14,67</t>
+          <t>-18,58; 19,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 16,18</t>
+          <t>-3,34; 31,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,05; 23,73</t>
+          <t>6,27; 35,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 23,52</t>
+          <t>-0,83; 32,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 61,3</t>
+          <t>-49,98; 98,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,99; 765,52</t>
+          <t>-46,6; 1028,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,64; 1547,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 466,24</t>
+          <t>-21,13; 938,23</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,36</t>
+          <t>17,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>10,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>58,9%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>75,25%</t>
+          <t>48,64%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 18,32</t>
+          <t>10,17; 24,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 10,29</t>
+          <t>-2,83; 12,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 13,44</t>
+          <t>3,05; 16,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 14,45</t>
+          <t>0,95; 12,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,37; 56,22</t>
+          <t>26,75; 84,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 54,74</t>
+          <t>-12,41; 63,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,28; 98,11</t>
+          <t>13,15; 118,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,2; 135,75</t>
+          <t>4,74; 106,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28B_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28B_1_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,85</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,52</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>26,56%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-6,23%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>82,22%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>20,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>13.89914113911403</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.532915185312955</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>14.76412761252492</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.29436757147435</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.29174961744513</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.04846527335751316</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.8679869912512602</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3018203953994767</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,45; 33,56</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-24,51; 17,85</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 31,64</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-15,67; 18,22</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-19,14; 100,23</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-56,57; 109,34</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-26,1; 450,59</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-62,49; 435,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.510663928670844</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-26.03203686055873</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.256419375830751</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-14.60727680879519</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1361770382780743</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5702947337950117</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2500548227283922</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6064715078388291</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>36.55352295291229</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>21.4640928232217</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>33.00347357731884</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>20.11350412196934</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.08404262426591</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.173162684863415</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>4.721370454523065</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>5.080330966715833</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>36,25</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13,59</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>20,91</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>16,53</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>186,13%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>63,47%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>195,79%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>220,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>16,89; 54,51</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-22,66; 35,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,02; 38,13</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,57; 30,8</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>50,5; 548,38</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-55,74; 1216,59</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>21,81; 961,61</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 1182,18</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>36.24948096169723</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>16.83723727538823</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>21.01195877719566</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>13.28203980871053</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.861305665770785</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.9564930507445293</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.090228966719482</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.38855143728955</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>25,19</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,92</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-7,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>74,46%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-3,21%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-31,22%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-13,63%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>16.88752547093168</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.7374642184786</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>6.677622668524482</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.77311888744172</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.5050367459156121</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5132874943114315</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.2773015949112888</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2899950788112464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>9,8; 40,51</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,73; 12,85</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-21,39; 4,02</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,0; 9,03</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>19,32; 167,52</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-42,41; 68,81</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-64,45; 24,33</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-53,74; 65,12</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>54.50588440038815</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>36.71415313570994</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>36.99457180462368</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>27.43487836048531</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.483804899681918</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>16.14059506698134</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>9.682946848273046</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>8.422197176058745</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,01</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,24</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>18,08</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,35</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,12%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>45,64%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>102,66%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>50,93%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>25.19398403963442</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.9135419041293835</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-7.426875974913055</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.245231099702897</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.74464501482121</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.03207364120601943</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.309310128281422</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1412236242969126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-10,74; 19,55</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,27; 22,07</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,19; 30,5</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,2; 21,48</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-21,12; 61,09</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-14,76; 146,21</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>22,25; 264,04</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-14,13; 191,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>9.798166852889082</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.48044894556564</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-21.78631682007906</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-17.36343102088729</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.1931975056010086</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4466512259140303</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6454599548242045</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5427310304278106</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>40.51145141552874</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.43799392014062</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.013867596780785</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.267914218063984</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.675217838941828</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.7337595782060734</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.249868989287315</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.6964881768651064</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>17,38</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,83</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>55,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,4%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>21,17%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>14,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 34,1</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-17,78; 19,82</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-14,45; 23,63</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-10,42; 16,55</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-8,69; 141,11</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-45,66; 91,71</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-41,5; 122,51</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-52,83; 172,55</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.457579820121492</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>9.176690600042322</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>16.85890554979278</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>9.13792280660248</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.0818627191655472</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.4175651923849837</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9121704307839088</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4939931148644048</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>12,92</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>18,52</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>15,57</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>4,59%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>138,21%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>787,94%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>160,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-10.54012144960924</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.789369402709964</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.084450702351243</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.118248685603517</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2145162553343196</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1893762274407186</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1123356941566663</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1652774161362884</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-18,58; 19,8</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 31,24</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,27; 35,71</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 32,96</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-49,98; 98,69</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-46,6; 1028,35</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-21,13; 938,23</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>20.46916560820816</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>20.8188471098157</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>29.94101121214217</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>20.99075931300391</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.5877471256136209</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.356366599848767</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.466796335078864</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.867591513971292</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,293 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>17,27</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5,66</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>10,14</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>51,54%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>23,39%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>58,9%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>48,64%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>17.38290832141834</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.5052028846226297</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>7.969645318914709</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>2.009432255133381</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.5499771844683079</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.01576564570218741</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.2942254765641089</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.128235610020383</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>10,17; 24,76</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 12,87</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>3,05; 16,54</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 12,9</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>26,75; 84,0</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-12,41; 63,13</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>13,15; 118,98</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,74; 106,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-2.322395891544311</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-20.06617996564571</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-13.20035566067896</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-10.93222172537954</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.08687476763106275</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.4902774246723777</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.3856268782067079</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.5510994369707232</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>34.09732023394032</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>18.5139934902549</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>26.06164898962524</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>16.48735708539192</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1.411110344436321</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.8319695945087926</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.36386824130502</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>1.670828091949374</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1.281807562148818</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>15.18764972082869</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>17.82870979175075</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>13.52007475264698</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.04587901970117562</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>2.056924868378677</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>7.54732350563174</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>1.416464959077885</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-18.58060252848101</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.2883658270959255</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>5.609399315559636</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-2.601415708322854</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.4997593829792763</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.2977066749298891</v>
+      </c>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="n">
+        <v>-0.3007351733131872</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>19.80162105018092</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>33.04139275189269</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>34.97077559962751</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>31.02549214877183</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.9868990229722946</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>13.72308304058771</v>
+      </c>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="n">
+        <v>8.736352184417893</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>17.52218762065008</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>6.215628111928872</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>10.12783446518809</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>6.388456127846243</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.5228698049404675</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.264301736097431</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.5778087814946102</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.4121614666915338</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>8.893771358451492</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.123285751144322</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>2.743558014973747</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.1065693037561268</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.258678718537308</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.07643466051540498</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.1158650160941058</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.01431319840798911</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>24.4027401908971</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>13.15412619947082</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>16.51160069909806</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>11.95554181844317</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.8289148199191277</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.678409681079653</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1.187557768611223</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.9720397760773528</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1321,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
